--- a/nodes_source_analyses/energy/energy/energy_hydrogen_biomass_gasification_ccs.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_hydrogen_biomass_gasification_ccs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E7D33-8F58-254A-B1AC-99AD41F2508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918E7D39-1DC2-8041-B6F9-55660BF8720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60160" yWindow="-18040" windowWidth="30080" windowHeight="16080" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
   <si>
     <t>Source</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>decommissioning costs</t>
-  </si>
-  <si>
-    <t>input share of torrified biomass pellets</t>
   </si>
   <si>
     <t>input share of network gas</t>
@@ -691,6 +688,12 @@
   </si>
   <si>
     <t>Used to calculate negative emissions</t>
+  </si>
+  <si>
+    <t>input.torrefied_biomass_pellets</t>
+  </si>
+  <si>
+    <t>input share of torrefied biomass pellets</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1731,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1983,6 +1986,7 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="459">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3323,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3472,7 +3476,7 @@
   <dimension ref="A2:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3491,7 +3495,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="16" customHeight="1">
       <c r="B2" s="172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="173"/>
       <c r="D2" s="173"/>
@@ -3581,7 +3585,7 @@
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="118" t="s">
@@ -3593,8 +3597,8 @@
     <row r="13" spans="1:12" ht="17" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="154" t="s">
-        <v>162</v>
+      <c r="C13" s="174" t="s">
+        <v>183</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="103">
@@ -3602,8 +3606,8 @@
         <v>0.97580363015519822</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="154" t="s">
-        <v>168</v>
+      <c r="G13" s="174" t="s">
+        <v>184</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="118" t="s">
@@ -3640,7 +3644,7 @@
       <c r="A15" s="119"/>
       <c r="B15" s="120"/>
       <c r="C15" s="165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>70</v>
@@ -3651,7 +3655,7 @@
       </c>
       <c r="F15" s="116"/>
       <c r="G15" s="165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="116"/>
       <c r="I15" s="118" t="s">
@@ -3757,7 +3761,7 @@
     <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="147"/>
       <c r="C22" s="166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="149" t="s">
         <v>133</v>
@@ -3782,7 +3786,7 @@
         <v>144</v>
       </c>
       <c r="D23" s="149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="103">
         <f>'Research data'!H25</f>
@@ -3850,7 +3854,7 @@
       <c r="A26" s="153"/>
       <c r="B26" s="155"/>
       <c r="C26" s="166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="149" t="s">
         <v>20</v>
@@ -3912,7 +3916,7 @@
       </c>
       <c r="H28" s="116"/>
       <c r="I28" s="169" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J28" s="122"/>
     </row>
@@ -4051,7 +4055,7 @@
       <c r="A36" s="119"/>
       <c r="B36" s="120"/>
       <c r="C36" s="170" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="121">
@@ -4062,7 +4066,7 @@
       <c r="G36" s="116"/>
       <c r="H36" s="116"/>
       <c r="I36" s="171" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J36" s="122"/>
     </row>
@@ -4409,7 +4413,7 @@
     <row r="11" spans="1:20" ht="17" thickBot="1">
       <c r="B11" s="43"/>
       <c r="C11" s="164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -5469,13 +5473,13 @@
     <row r="22" spans="2:7">
       <c r="B22" s="71"/>
       <c r="C22" s="167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="71"/>
       <c r="C23" s="168" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -5876,7 +5880,7 @@
         <v>70</v>
       </c>
       <c r="G73" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -6209,7 +6213,7 @@
     <row r="145" spans="2:7">
       <c r="B145" s="71"/>
       <c r="G145" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="2:7">
@@ -6376,7 +6380,7 @@
     </row>
     <row r="270" spans="5:7">
       <c r="G270" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
